--- a/2015/201512/10_DOCUMENT/12_BASIC_DESIGN/[HOANGTRAN]SOW.XLSX
+++ b/2015/201512/10_DOCUMENT/12_BASIC_DESIGN/[HOANGTRAN]SOW.XLSX
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\SVN_9.0\10_DOCUMENT\12_BASIC_DESIGN\2.PROJECTS\04.HOANGTRAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\SVN_Daisuthuc\10_DOCUMENT\12_BASIC_DESIGN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -116,13 +116,6 @@
     <t>Cập nhật người dùng</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Viết mới:
-      - Xác nhận của thủ quỹ: lưu trữ thêm Giờ, phút và giây 
-      - Thêm màn hình mới: gắn link vào module T
-      - Thủ quỹ Quét barcode: gọi nhanh cảnh báo, nếu OK thì gọi nhanh đến màn phiếu thu, update thời gian hoàn thành phiếu điều phối</t>
-  </si>
-  <si>
     <t>Xem chi tiết phiếu đã điều phối</t>
   </si>
   <si>
@@ -834,6 +827,16 @@
  - Sau khi điều phối xong thì Phiếu điều phối chính là phiếu chuyển kho nội bộ
  - Cảnh báo nhân viên giao hàng còn nợ phiếu giao hàng
  - In kèm barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viết mới:
+      - Xác nhận của thủ quỹ: lưu trữ thêm Giờ, phút và giây 
+      - Thêm màn hình mới: gắn link vào module T
+      - Thủ quỹ Quét barcode: gọi nhanh cảnh báo, nếu OK thì gọi nhanh đến màn phiếu thu, update thời gian hoàn thành phiếu điều phối
+  - Update thời gian và người quét barcode quỹ vào phiếu điều phối.
+      - Duyệt tất cả các phiếu điều phối nếu bằng đơn hàng và tất cả các phiếu điều phối đềuh oàn tất tất thì update  trạng thái đơn hàng hoàn tất luôn
+     - Kiểm tra nếu phiếu điều phối đã hoàn tất  thì cảnh báo message (Không update phiếu điều phối)</t>
   </si>
 </sst>
 </file>
@@ -1381,11 +1384,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1398,7 @@
     <col min="3" max="3" width="25.7109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" customWidth="1"/>
@@ -1407,7 +1410,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1422,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -1437,22 +1440,22 @@
         <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="7" customFormat="1" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,14 +1463,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="16">
@@ -1489,11 +1492,11 @@
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="16">
@@ -1515,11 +1518,11 @@
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="16">
@@ -1541,18 +1544,18 @@
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="16">
         <v>8</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I6" s="16">
         <v>1</v>
@@ -1567,11 +1570,11 @@
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="16">
@@ -1593,11 +1596,11 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="16">
@@ -1623,7 +1626,7 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="16">
@@ -1645,11 +1648,11 @@
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="16">
@@ -1675,7 +1678,7 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="16">
@@ -1696,14 +1699,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="16">
@@ -1724,14 +1727,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="16">
@@ -1757,7 +1760,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="16">
@@ -1783,7 +1786,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="16">
@@ -1804,14 +1807,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="16">
@@ -1833,11 +1836,11 @@
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="16">
@@ -1859,11 +1862,11 @@
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="16">
@@ -1884,19 +1887,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="16">
         <v>4</v>
@@ -1921,11 +1924,11 @@
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="16">
@@ -1947,11 +1950,11 @@
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="16">
@@ -1973,11 +1976,11 @@
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="16">
@@ -1998,21 +2001,21 @@
         <v>22</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="16">
         <v>4</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I23" s="15">
         <v>1</v>
@@ -2027,11 +2030,11 @@
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="16">
@@ -2053,11 +2056,11 @@
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="16">
@@ -2082,7 +2085,7 @@
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="15"/>
@@ -2102,11 +2105,11 @@
       <c r="B27" s="30"/>
       <c r="C27" s="6"/>
       <c r="D27" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="15"/>
@@ -2130,7 +2133,7 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="15"/>
@@ -2148,14 +2151,14 @@
         <v>27</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="16">
@@ -2177,16 +2180,16 @@
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G30" s="16">
         <v>8</v>
@@ -2211,11 +2214,11 @@
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="16">
@@ -2241,7 +2244,7 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="16">
@@ -2271,10 +2274,10 @@
         <v>5</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" s="16">
         <v>4</v>
@@ -2305,10 +2308,10 @@
         <v>4</v>
       </c>
       <c r="E34" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="G34" s="16">
         <v>8</v>
@@ -2337,7 +2340,7 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="16">
@@ -2359,11 +2362,11 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="23">
@@ -2384,7 +2387,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="8" t="s">
@@ -2392,7 +2395,7 @@
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="15"/>
@@ -2410,14 +2413,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>27</v>
@@ -2443,7 +2446,7 @@
         <v>18</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>27</v>
@@ -2464,7 +2467,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="8" t="s">
@@ -2472,7 +2475,7 @@
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="15"/>
@@ -2485,7 +2488,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -2496,7 +2499,7 @@
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="15"/>
@@ -2509,12 +2512,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="9" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" s="9" customFormat="1" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8" t="s">
@@ -2522,7 +2525,7 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="15"/>
@@ -2535,12 +2538,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="9" customFormat="1" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" s="9" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="8" t="s">
@@ -2548,7 +2551,7 @@
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="15"/>
@@ -2566,7 +2569,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="8" t="s">
@@ -2574,7 +2577,7 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G44" s="16"/>
       <c r="H44" s="15"/>
@@ -2592,7 +2595,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="8" t="s">
@@ -2600,7 +2603,7 @@
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="15"/>
@@ -2618,14 +2621,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
@@ -2647,11 +2650,11 @@
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
@@ -2674,11 +2677,11 @@
       <c r="B48" s="30"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="15"/>
@@ -2698,11 +2701,11 @@
       <c r="B49" s="30"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="15"/>
@@ -2722,11 +2725,11 @@
       <c r="B50" s="30"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="15"/>
@@ -2745,11 +2748,11 @@
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
@@ -2771,11 +2774,11 @@
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
